--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-0.2/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="73">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,130 +43,136 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>broke</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>waste</t>
+  </si>
+  <si>
     <t>returned</t>
   </si>
   <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>broke</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>water</t>
   </si>
   <si>
+    <t>smaller</t>
+  </si>
+  <si>
     <t>instead</t>
   </si>
   <si>
-    <t>waste</t>
-  </si>
-  <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>smaller</t>
+    <t>guess</t>
   </si>
   <si>
     <t>broken</t>
   </si>
   <si>
-    <t>guess</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
     <t>okay</t>
   </si>
   <si>
-    <t>plastic</t>
-  </si>
-  <si>
-    <t>apart</t>
+    <t>paint</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>color</t>
   </si>
   <si>
     <t>ok</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
     <t>cheap</t>
   </si>
   <si>
+    <t>size</t>
+  </si>
+  <si>
     <t>though</t>
   </si>
   <si>
     <t>bit</t>
   </si>
   <si>
-    <t>size</t>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>money</t>
   </si>
   <si>
     <t>would</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>hard</t>
+    <t>work</t>
+  </si>
+  <si>
+    <t>better</t>
   </si>
   <si>
     <t>product</t>
   </si>
   <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>could</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>used</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>price</t>
-  </si>
-  <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>use</t>
   </si>
   <si>
     <t>buy</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>toy</t>
   </si>
   <si>
     <t>one</t>
@@ -175,37 +181,40 @@
     <t>negative</t>
   </si>
   <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
     <t>thank</t>
   </si>
   <si>
     <t>great</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>love</t>
+    <t>perfect</t>
   </si>
   <si>
     <t>best</t>
-  </si>
-  <si>
-    <t>perfect</t>
   </si>
   <si>
     <t>loved</t>
@@ -581,7 +590,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -589,10 +598,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="J1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -671,16 +680,16 @@
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K3">
-        <v>0.875</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="M3">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -692,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -700,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8421052631578947</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="C4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -721,16 +730,16 @@
         <v>6</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K4">
-        <v>0.8615384615384616</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="M4">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -742,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -750,13 +759,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8181818181818182</v>
+        <v>0.7688172043010753</v>
       </c>
       <c r="C5">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="D5">
-        <v>36</v>
+        <v>143</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -768,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K5">
-        <v>0.6989247311827957</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L5">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="M5">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -792,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -800,13 +809,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.796875</v>
+        <v>0.765625</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -818,19 +827,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K6">
-        <v>0.59375</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -842,7 +851,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -850,13 +859,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7524271844660194</v>
+        <v>0.7427184466019418</v>
       </c>
       <c r="C7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -868,19 +877,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K7">
-        <v>0.5660377358490566</v>
+        <v>0.5849056603773585</v>
       </c>
       <c r="L7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M7">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -892,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -900,13 +909,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7464788732394366</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -918,19 +927,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K8">
-        <v>0.4057971014492754</v>
+        <v>0.578125</v>
       </c>
       <c r="L8">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="M8">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -942,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>41</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -950,13 +959,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7204301075268817</v>
+        <v>0.6909090909090909</v>
       </c>
       <c r="C9">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="D9">
-        <v>134</v>
+        <v>38</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -968,19 +977,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K9">
-        <v>0.3762295081967213</v>
+        <v>0.4202898550724637</v>
       </c>
       <c r="L9">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="M9">
-        <v>459</v>
+        <v>29</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>761</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1000,13 +1009,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6666666666666666</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C10">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D10">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1018,19 +1027,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K10">
-        <v>0.3298755186721992</v>
+        <v>0.3860655737704918</v>
       </c>
       <c r="L10">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="M10">
-        <v>159</v>
+        <v>471</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1042,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>323</v>
+        <v>749</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1050,13 +1059,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6666666666666666</v>
+        <v>0.6578947368421053</v>
       </c>
       <c r="C11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D11">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1068,19 +1077,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K11">
-        <v>0.3285509325681492</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="M11">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1092,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1100,13 +1109,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6418918918918919</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="C12">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="D12">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1118,19 +1127,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K12">
-        <v>0.2583333333333334</v>
+        <v>0.3132780082987552</v>
       </c>
       <c r="L12">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="M12">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1142,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>89</v>
+        <v>331</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,13 +1159,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6363636363636364</v>
+        <v>0.5630252100840336</v>
       </c>
       <c r="C13">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="D13">
-        <v>35</v>
+        <v>67</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1168,19 +1177,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K13">
-        <v>0.2469879518072289</v>
+        <v>0.2349397590361446</v>
       </c>
       <c r="L13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M13">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1192,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1200,13 +1209,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6050420168067226</v>
+        <v>0.5625</v>
       </c>
       <c r="C14">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D14">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1218,19 +1227,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K14">
-        <v>0.2048929663608563</v>
+        <v>0.2166666666666667</v>
       </c>
       <c r="L14">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="M14">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1242,7 +1251,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>260</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1250,13 +1259,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5301204819277109</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C15">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="D15">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1268,19 +1277,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>26</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K15">
-        <v>0.1851851851851852</v>
+        <v>0.1926605504587156</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="M15">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1292,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>154</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1300,13 +1309,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5185185185185185</v>
+        <v>0.5180722891566265</v>
       </c>
       <c r="C16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1318,19 +1327,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K16">
-        <v>0.1044176706827309</v>
+        <v>0.1587301587301587</v>
       </c>
       <c r="L16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1342,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>223</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1350,13 +1359,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4753623188405797</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C17">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="D17">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1368,19 +1377,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K17">
-        <v>0.09553023663453111</v>
+        <v>0.1124497991967871</v>
       </c>
       <c r="L17">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="M17">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1392,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>1032</v>
+        <v>221</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1400,13 +1409,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4444444444444444</v>
+        <v>0.4947368421052631</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D18">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,31 +1427,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K18">
-        <v>0.04935064935064935</v>
+        <v>0.09465381244522349</v>
       </c>
       <c r="L18">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="M18">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="N18">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O18">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1464</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1450,13 +1459,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.4409448818897638</v>
+        <v>0.4645669291338583</v>
       </c>
       <c r="C19">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D19">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1468,7 +1477,31 @@
         <v>0</v>
       </c>
       <c r="H19">
+        <v>68</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>71</v>
+      </c>
+      <c r="K19">
+        <v>0.04421326397919376</v>
+      </c>
+      <c r="L19">
+        <v>68</v>
+      </c>
+      <c r="M19">
+        <v>71</v>
+      </c>
+      <c r="N19">
+        <v>0.96</v>
+      </c>
+      <c r="O19">
+        <v>0.04000000000000004</v>
+      </c>
+      <c r="P19" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q19">
+        <v>1470</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1509,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.4105263157894737</v>
+        <v>0.4259259259259259</v>
       </c>
       <c r="C20">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D20">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>56</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1502,13 +1535,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.390625</v>
+        <v>0.3968253968253968</v>
       </c>
       <c r="C21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1520,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>78</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1528,13 +1561,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3316831683168317</v>
+        <v>0.390625</v>
       </c>
       <c r="C22">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="D22">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1546,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>135</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1554,13 +1587,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.3146067415730337</v>
+        <v>0.3820224719101123</v>
       </c>
       <c r="C23">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D23">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1572,7 +1605,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1580,13 +1613,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.3033175355450237</v>
+        <v>0.3415841584158416</v>
       </c>
       <c r="C24">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D24">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1598,7 +1631,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>147</v>
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1606,13 +1639,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2905982905982906</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C25">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D25">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1624,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>83</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1632,13 +1665,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2551020408163265</v>
+        <v>0.296875</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D26">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1650,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1658,13 +1691,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2422680412371134</v>
+        <v>0.2748815165876777</v>
       </c>
       <c r="C27">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="D27">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1676,7 +1709,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1684,13 +1717,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2225519287833828</v>
+        <v>0.2680412371134021</v>
       </c>
       <c r="C28">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>150</v>
+        <v>52</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1702,7 +1735,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>524</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1710,13 +1743,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2215189873417721</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C29">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="D29">
-        <v>70</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1728,7 +1761,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>246</v>
+        <v>88</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1736,13 +1769,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.2101449275362319</v>
+        <v>0.2448979591836735</v>
       </c>
       <c r="C30">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1754,7 +1787,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>218</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1762,13 +1795,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.21</v>
+        <v>0.215</v>
       </c>
       <c r="C31">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D31">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1780,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1788,13 +1821,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1828193832599119</v>
+        <v>0.2065217391304348</v>
       </c>
       <c r="C32">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="D32">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1806,7 +1839,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>371</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1814,13 +1847,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.180379746835443</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C33">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D33">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1832,7 +1865,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1840,13 +1873,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1588785046728972</v>
+        <v>0.1928783382789317</v>
       </c>
       <c r="C34">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="D34">
-        <v>34</v>
+        <v>130</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1858,7 +1891,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>180</v>
+        <v>544</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1866,13 +1899,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1528662420382166</v>
+        <v>0.1708860759493671</v>
       </c>
       <c r="C35">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="D35">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1884,7 +1917,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>133</v>
+        <v>262</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1892,13 +1925,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1485714285714286</v>
+        <v>0.1588785046728972</v>
       </c>
       <c r="C36">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="D36">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1910,7 +1943,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>149</v>
+        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1918,13 +1951,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.1385767790262172</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C37">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="D37">
-        <v>37</v>
+        <v>71</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1936,7 +1969,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>230</v>
+        <v>383</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1944,13 +1977,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.1379310344827586</v>
+        <v>0.1464968152866242</v>
       </c>
       <c r="C38">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="D38">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1962,7 +1995,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>300</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1970,13 +2003,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.1145833333333333</v>
+        <v>0.1411290322580645</v>
       </c>
       <c r="C39">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D39">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1988,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>170</v>
+        <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1996,13 +2029,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.09677419354838709</v>
+        <v>0.1379310344827586</v>
       </c>
       <c r="C40">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="D40">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2014,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>224</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2022,13 +2055,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.09315068493150686</v>
+        <v>0.1314285714285714</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2040,7 +2073,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>331</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2048,13 +2081,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.07887323943661972</v>
+        <v>0.1068493150684932</v>
       </c>
       <c r="C42">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D42">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2066,7 +2099,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2074,25 +2107,25 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.07603305785123966</v>
+        <v>0.07887323943661972</v>
       </c>
       <c r="C43">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="D43">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="E43">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="F43">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="G43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>559</v>
+        <v>327</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2100,25 +2133,25 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.06103286384976526</v>
+        <v>0.0738255033557047</v>
       </c>
       <c r="C44">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D44">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E44">
-        <v>0.24</v>
+        <v>0.06</v>
       </c>
       <c r="F44">
-        <v>0.76</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44">
-        <v>400</v>
+        <v>414</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2126,25 +2159,25 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.06013363028953229</v>
+        <v>0.06960556844547564</v>
       </c>
       <c r="C45">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D45">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E45">
-        <v>0</v>
+        <v>0.09</v>
       </c>
       <c r="F45">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="G45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45">
-        <v>422</v>
+        <v>401</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2152,25 +2185,77 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.03666245259165613</v>
+        <v>0.05766062602965404</v>
       </c>
       <c r="C46">
+        <v>35</v>
+      </c>
+      <c r="D46">
+        <v>36</v>
+      </c>
+      <c r="E46">
+        <v>0.03</v>
+      </c>
+      <c r="F46">
+        <v>0.97</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47">
+        <v>0.04447852760736196</v>
+      </c>
+      <c r="C47">
         <v>29</v>
       </c>
-      <c r="D46">
+      <c r="D47">
         <v>32</v>
       </c>
-      <c r="E46">
+      <c r="E47">
         <v>0.09</v>
       </c>
-      <c r="F46">
+      <c r="F47">
         <v>0.91</v>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46">
-        <v>762</v>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48">
+        <v>0.03417721518987342</v>
+      </c>
+      <c r="C48">
+        <v>27</v>
+      </c>
+      <c r="D48">
+        <v>31</v>
+      </c>
+      <c r="E48">
+        <v>0.13</v>
+      </c>
+      <c r="F48">
+        <v>0.87</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>763</v>
       </c>
     </row>
   </sheetData>
